--- a/BD/Base Status Report - v2.xlsx
+++ b/BD/Base Status Report - v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://carajasonline-my.sharepoint.com/personal/paulo_santos_carajas_com_br/Documents/Área de Trabalho/Status Report Manager Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="639" documentId="8_{0C9FC3F2-318F-408F-A5F2-4EE3F38EC192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1CE1B7F-2A2E-466C-8E90-711EBDF52556}"/>
+  <xr:revisionPtr revIDLastSave="646" documentId="8_{0C9FC3F2-318F-408F-A5F2-4EE3F38EC192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F500FF0D-8135-4D72-8E2E-3DA1DDC16CC8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="723" firstSheet="1" activeTab="2" xr2:uid="{573AE749-48BB-4457-B8BB-EECBBACD5347}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="723" firstSheet="2" activeTab="4" xr2:uid="{573AE749-48BB-4457-B8BB-EECBBACD5347}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela descricao" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,16 @@
     <sheet name="Total de casos de execução" sheetId="7" r:id="rId3"/>
     <sheet name="Acompanhamento do proj. Spr (3)" sheetId="14" r:id="rId4"/>
     <sheet name="Alterações no escopo da Spr (3)" sheetId="12" r:id="rId5"/>
-    <sheet name="Acompanhamento do proj. Spr (4)" sheetId="15" r:id="rId6"/>
-    <sheet name="Acompanhamento do proj. Spr (2)" sheetId="10" r:id="rId7"/>
-    <sheet name="Acompanhamento do proj. Sprint" sheetId="4" r:id="rId8"/>
-    <sheet name="Alterações no escopo da Spr (2)" sheetId="11" r:id="rId9"/>
+    <sheet name="Alterações no escopo da Spr (2)" sheetId="11" r:id="rId6"/>
+    <sheet name="Acompanhamento do proj. Spr (4)" sheetId="15" r:id="rId7"/>
+    <sheet name="Acompanhamento do proj. Spr (2)" sheetId="10" r:id="rId8"/>
+    <sheet name="Acompanhamento do proj. Sprint" sheetId="4" r:id="rId9"/>
     <sheet name="Alterações no escopo da Sprint" sheetId="5" r:id="rId10"/>
     <sheet name="Trabalho restante da Sprint (2)" sheetId="13" r:id="rId11"/>
     <sheet name="Trabalho restante da Sprint" sheetId="6" r:id="rId12"/>
     <sheet name="Velocimetro" sheetId="9" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
   <si>
     <t>Project Name</t>
   </si>
@@ -89,90 +89,19 @@
     <t>Behind</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Total de Cases</t>
   </si>
   <si>
-    <t>%Complete</t>
+    <t>Evanilson Peres</t>
   </si>
   <si>
-    <t>XX Days</t>
+    <t>Weliton Vilela</t>
   </si>
   <si>
-    <t>Sprint 1</t>
+    <t>Marcelo Pelegrin</t>
   </si>
   <si>
-    <t>Website Design</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Dd/mm/yyyy</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Login
-Page Design</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Test 
-Backup Module</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Carl</t>
-  </si>
-  <si>
-    <t>Add name</t>
-  </si>
-  <si>
-    <t>Remaining Work</t>
-  </si>
-  <si>
-    <t>Original Estimative</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Escala</t>
-  </si>
-  <si>
-    <t>Antes</t>
-  </si>
-  <si>
-    <t>Ponteiro</t>
-  </si>
-  <si>
-    <t>Depois</t>
-  </si>
-  <si>
-    <t>Projetos / Iniciativas</t>
-  </si>
-  <si>
-    <t>Prioridade</t>
+    <t>Projetos / Iniciativas Supply Chain</t>
   </si>
   <si>
     <t>Data Inicio</t>
@@ -181,10 +110,13 @@
     <t>Data Fim</t>
   </si>
   <si>
-    <t>Duração</t>
+    <t>Duração (dias)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>%Complete</t>
   </si>
   <si>
     <t>Confiabilidade</t>
@@ -196,10 +128,16 @@
     <t>Custo</t>
   </si>
   <si>
-    <t>Total de Cases</t>
+    <t>A Iniciar</t>
+  </si>
+  <si>
+    <t>Transportes</t>
   </si>
   <si>
     <t>Integração com as Transportadoras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ </t>
   </si>
   <si>
     <t>Bidding de Transporte</t>
@@ -215,6 +153,9 @@
   </si>
   <si>
     <t>Frete Retorno (Backhaul)</t>
+  </si>
+  <si>
+    <t>Operações</t>
   </si>
   <si>
     <t>Controle de Lote</t>
@@ -235,6 +176,12 @@
     <t>Estruturação do CD CE/PB.</t>
   </si>
   <si>
+    <t>Aumento da produção da fábrica de Paletes</t>
+  </si>
+  <si>
+    <t>Planejamento</t>
+  </si>
+  <si>
     <t>Inventário</t>
   </si>
   <si>
@@ -250,25 +197,7 @@
     <t>Ciclo mensal da categoria / SRM</t>
   </si>
   <si>
-    <t>A Iniciar</t>
-  </si>
-  <si>
-    <t>Operações</t>
-  </si>
-  <si>
-    <t>Planejamento</t>
-  </si>
-  <si>
-    <t>Projetos / Iniciativas Supply Chain</t>
-  </si>
-  <si>
-    <t>Transportes</t>
-  </si>
-  <si>
-    <t>Duração (dias)</t>
-  </si>
-  <si>
-    <t>Aumento da produção da fábrica de Paletes</t>
+    <t>Mês</t>
   </si>
   <si>
     <t>Janeiro</t>
@@ -301,32 +230,109 @@
     <t>Outubro</t>
   </si>
   <si>
-    <t>Transporte</t>
+    <t>Categoria</t>
   </si>
   <si>
-    <t>Weliton Vilela</t>
-  </si>
-  <si>
-    <t>Marcelo Pelegrin</t>
-  </si>
-  <si>
-    <t>Evanilson Peres</t>
+    <t>Transporte</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t xml:space="preserve">✔ </t>
+    <t>Projetos / Iniciativas</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Duração</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>XX Days</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Website Design</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Dd/mm/yyyy</t>
+  </si>
+  <si>
+    <t>Test 
+Backup Module</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Login
+Page Design</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Original Estimative</t>
   </si>
   <si>
     <t xml:space="preserve">Velocidade </t>
+  </si>
+  <si>
+    <t>Remaining Work</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Add name</t>
+  </si>
+  <si>
+    <t>Escala</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Ponteiro</t>
+  </si>
+  <si>
+    <t>Antes</t>
+  </si>
+  <si>
+    <t>Depois</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +372,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="10">
@@ -609,7 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -739,6 +751,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -754,9 +770,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1066,7 +1084,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1178,7 +1196,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1213,7 +1231,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1567,7 +1585,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1621,7 +1638,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="21937664"/>
@@ -1680,7 +1697,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="18526688"/>
@@ -1722,7 +1739,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1759,7 +1776,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2040,7 +2057,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="21937664"/>
@@ -2099,7 +2116,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="18526688"/>
@@ -2141,7 +2158,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2178,7 +2195,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2585,7 +2602,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="21937664"/>
@@ -2644,7 +2661,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="18526688"/>
@@ -2686,7 +2703,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2723,7 +2740,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3003,7 +3020,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="681647327"/>
@@ -3062,7 +3079,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="676736703"/>
@@ -3104,7 +3121,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3134,7 +3151,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3373,7 +3390,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="162069312"/>
@@ -3432,7 +3449,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="15936064"/>
@@ -3474,7 +3491,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3511,7 +3528,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3988,7 +4005,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{950CBAE6-DA9A-4DEB-AE34-DD7EFCC3AD2F}</c15:txfldGUID>
+                      <c15:txfldGUID>{4D1A6D72-B149-4972-A043-0858DDEE19DF}</c15:txfldGUID>
                       <c15:f>Velocimetro!$E$1</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4041,7 +4058,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4146,7 +4163,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8234,12 +8251,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8541,14 +8554,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="4" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8562,7 +8575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -8589,31 +8602,31 @@
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="45" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B2" s="47">
         <v>6</v>
@@ -8625,9 +8638,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="3" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B3" s="47">
         <v>6</v>
@@ -8639,9 +8652,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B4" s="47">
         <v>6</v>
@@ -8653,9 +8666,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B5" s="47">
         <v>4</v>
@@ -8667,9 +8680,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B6" s="47">
         <v>4</v>
@@ -8681,9 +8694,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="15" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B7" s="47">
         <v>3</v>
@@ -8695,9 +8708,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="15" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B8" s="47">
         <v>2</v>
@@ -8709,9 +8722,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="15" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B9" s="47">
         <v>2</v>
@@ -8723,9 +8736,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="15" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B10" s="47">
         <v>1</v>
@@ -8737,9 +8750,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B11" s="47">
         <v>1</v>
@@ -8765,94 +8778,94 @@
       <selection activeCell="A8" sqref="A8:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="23" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="24" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="B2" s="24">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="24" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B3" s="24">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="24" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="B4" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="55">
+        <v>23</v>
+      </c>
+      <c r="B9" s="50">
         <v>6</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="50">
         <v>4</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="50">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="55">
+        <v>80</v>
+      </c>
+      <c r="B10" s="50">
         <v>4</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="50">
         <v>4</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="50">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="55">
+        <v>25</v>
+      </c>
+      <c r="B11" s="50">
         <v>3</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="50">
         <v>5</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="50">
         <v>1</v>
       </c>
     </row>
@@ -8870,27 +8883,27 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="23" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1">
       <c r="A2" s="24" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B2" s="24">
         <v>92</v>
@@ -8899,9 +8912,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="15" thickBot="1">
       <c r="A3" s="24" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B3" s="24">
         <v>85</v>
@@ -8910,9 +8923,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="15" thickBot="1">
       <c r="A4" s="24" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="B4" s="24">
         <v>84</v>
@@ -8921,9 +8934,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="15" thickBot="1">
       <c r="A5" s="24" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B5" s="24">
         <v>78</v>
@@ -8932,9 +8945,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="24" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B6" s="24">
         <v>72</v>
@@ -8957,25 +8970,25 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="51"/>
+    <row r="1" spans="1:8">
+      <c r="A1" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="53"/>
       <c r="D1" s="33" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="E1" s="34">
         <v>0</v>
       </c>
-      <c r="G1" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="53"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G1" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="55"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="30">
         <v>0.1</v>
       </c>
@@ -8983,13 +8996,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="H2" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="32">
         <f>A2+0.1</f>
         <v>0.2</v>
@@ -8998,13 +9011,13 @@
         <v>10</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="H3" s="31">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="32">
         <f t="shared" ref="A4:A11" si="0">A3+0.1</f>
         <v>0.30000000000000004</v>
@@ -9013,14 +9026,14 @@
         <v>10</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="H4" s="31">
         <f>SUM(B2:B12)-H2-H3</f>
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="32">
         <f t="shared" si="0"/>
         <v>0.4</v>
@@ -9029,7 +9042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="32">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -9038,7 +9051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="32">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -9047,7 +9060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="32">
         <f t="shared" si="0"/>
         <v>0.7</v>
@@ -9056,7 +9069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="32">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
@@ -9065,7 +9078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10" s="32">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
@@ -9074,7 +9087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" s="32">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
@@ -9083,9 +9096,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="29" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="B12" s="35">
         <f>SUM(B2:B11)</f>
@@ -9110,13 +9123,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -9124,7 +9137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="15" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -9132,7 +9145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="15" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -9140,7 +9153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="15" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -9148,7 +9161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -9191,62 +9204,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDC4EFE-B3B5-409F-B585-3E76FFF896D9}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="25" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B1" s="26">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15" thickBot="1">
       <c r="A2" s="27" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B2" s="28">
         <f>C6/B1</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="15" thickBot="1">
       <c r="A3" s="27" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="B3" s="28">
         <f>C7/B1</f>
         <v>0.3888888888888889</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="15" thickBot="1">
       <c r="A4" s="27" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="B4" s="28">
         <f>C8/B1</f>
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="C6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="C7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="C8">
         <v>5</v>
       </c>
@@ -9265,20 +9278,20 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="38.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="7.1796875" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="G1">
         <f>COUNTIF(G5:G26,"x")</f>
         <v>0</v>
@@ -9296,51 +9309,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="54" t="e">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
+      <c r="G2" s="49" t="e">
         <f>G1/J1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2" s="54" t="e">
+      <c r="H2" s="49" t="e">
         <f>H1/J1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I2" s="54" t="e">
+      <c r="I2" s="49" t="e">
         <f>I1/J1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="49" t="s">
-        <v>69</v>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
+      <c r="A3" s="51" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="50"/>
+        <v>22</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="A4" s="52"/>
       <c r="B4" s="43">
         <v>45292</v>
       </c>
@@ -9352,18 +9365,18 @@
         <v>304</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="37" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -9374,9 +9387,9 @@
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="24" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B6" s="42">
         <v>45292</v>
@@ -9389,22 +9402,22 @@
         <v>90</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F6" s="36">
         <v>0</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H6" s="36"/>
       <c r="I6" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="24" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B7" s="42">
         <v>45292</v>
@@ -9417,22 +9430,22 @@
         <v>150</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F7" s="36">
         <v>0</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="24" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B8" s="42">
         <v>45292</v>
@@ -9445,22 +9458,22 @@
         <v>90</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F8" s="36">
         <v>0</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="I8" s="36"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="24" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B9" s="42">
         <v>45292</v>
@@ -9473,24 +9486,24 @@
         <v>181</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F9" s="36">
         <v>0</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="24" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B10" s="42">
         <v>45292</v>
@@ -9503,22 +9516,22 @@
         <v>304</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F10" s="36">
         <v>0</v>
       </c>
       <c r="G10" s="36"/>
       <c r="H10" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="24" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B11" s="42">
         <v>45292</v>
@@ -9531,22 +9544,22 @@
         <v>243</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F11" s="36">
         <v>0</v>
       </c>
       <c r="G11" s="36"/>
       <c r="H11" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="9" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -9557,9 +9570,9 @@
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="24" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B13" s="42">
         <v>45292</v>
@@ -9572,20 +9585,20 @@
         <v>181</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F13" s="36">
         <v>0</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="14.45" customHeight="1" thickBot="1">
       <c r="A14" s="24" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B14" s="42">
         <v>45444</v>
@@ -9598,22 +9611,22 @@
         <v>121</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F14" s="36">
         <v>0</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="14.45" customHeight="1" thickBot="1">
       <c r="A15" s="24" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B15" s="42">
         <v>45383</v>
@@ -9626,20 +9639,20 @@
         <v>60</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F15" s="36">
         <v>0</v>
       </c>
       <c r="G15" s="36"/>
       <c r="H15" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="14.45" customHeight="1" thickBot="1">
       <c r="A16" s="24" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B16" s="42">
         <v>45444</v>
@@ -9652,22 +9665,22 @@
         <v>91</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F16" s="36">
         <v>0</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
       <c r="A17" s="24" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B17" s="42">
         <v>45292</v>
@@ -9680,22 +9693,22 @@
         <v>243</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F17" s="36">
         <v>0</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H17" s="36"/>
       <c r="I17" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
       <c r="A18" s="24" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B18" s="42">
         <v>45474</v>
@@ -9708,24 +9721,24 @@
         <v>61</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F18" s="36">
         <v>0</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
       <c r="A19" s="24" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B19" s="42">
         <v>45413</v>
@@ -9738,22 +9751,22 @@
         <v>152</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F19" s="36">
         <v>0</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
       <c r="A20" s="9" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -9764,9 +9777,9 @@
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
     </row>
-    <row r="21" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
       <c r="A21" s="24" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B21" s="42">
         <v>45292</v>
@@ -9779,20 +9792,20 @@
         <v>304</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F21" s="36">
         <v>0</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
       <c r="A22" s="24" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B22" s="42">
         <v>45292</v>
@@ -9805,22 +9818,22 @@
         <v>90</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F22" s="36">
         <v>0</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H22" s="36"/>
       <c r="I22" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
       <c r="A23" s="24" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B23" s="42">
         <v>45323</v>
@@ -9833,20 +9846,20 @@
         <v>28</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F23" s="36">
         <v>0</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
     </row>
-    <row r="24" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
       <c r="A24" s="24" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B24" s="42">
         <v>45352</v>
@@ -9859,22 +9872,22 @@
         <v>121</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F24" s="36">
         <v>0</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="I24" s="36"/>
     </row>
-    <row r="25" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
       <c r="A25" s="24" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B25" s="42">
         <v>45383</v>
@@ -9887,13 +9900,13 @@
         <v>152</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F25" s="36">
         <v>0</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
@@ -9912,37 +9925,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E14863D-7AF3-40D1-AA37-0845B6DBA6EE}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
-        <v>44</v>
+    <row r="1" spans="1:4" ht="24">
+      <c r="A1" s="56" t="s">
+        <v>49</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B2" s="47">
         <v>7</v>
@@ -9954,9 +9967,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="3" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B3" s="47">
         <v>7</v>
@@ -9968,9 +9981,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B4" s="47">
         <v>7</v>
@@ -9982,9 +9995,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B5" s="47">
         <v>5</v>
@@ -9996,9 +10009,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B6" s="47">
         <v>6</v>
@@ -10010,9 +10023,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="15" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B7" s="47">
         <v>5</v>
@@ -10024,9 +10037,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="15" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B8" s="47">
         <v>5</v>
@@ -10038,9 +10051,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="15" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B9" s="47">
         <v>3</v>
@@ -10052,9 +10065,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="15" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B10" s="47">
         <v>4</v>
@@ -10066,9 +10079,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B11" s="47">
         <v>1</v>
@@ -10080,6 +10093,7 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:4" ht="15"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -10088,6 +10102,84 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A35E31-CC84-4E61-98F7-3942719A1920}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1">
+      <c r="A2" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="47">
+        <v>1</v>
+      </c>
+      <c r="C2" s="47">
+        <v>2</v>
+      </c>
+      <c r="D2" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1">
+      <c r="A3" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="47">
+        <v>1</v>
+      </c>
+      <c r="C3" s="47">
+        <v>2</v>
+      </c>
+      <c r="D3" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1">
+      <c r="A4" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="47">
+        <v>1</v>
+      </c>
+      <c r="C4" s="47">
+        <v>2</v>
+      </c>
+      <c r="D4" s="47">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3DDB14-0B86-4454-A355-FE8EF26191C0}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -10095,17 +10187,17 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="38.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.90625" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="D1">
         <f>COUNTIF(D5:D26,"x")</f>
         <v>15</v>
@@ -10123,55 +10215,55 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="54">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
+      <c r="D2" s="49">
         <f>D1/G1</f>
         <v>0.45454545454545453</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="49">
         <f>E1/G1</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="49">
         <f>F1/G1</f>
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="49" t="s">
-        <v>69</v>
+    <row r="3" spans="1:7" ht="15" thickBot="1">
+      <c r="A3" s="51" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="50"/>
+        <v>19</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1">
+      <c r="A4" s="52"/>
       <c r="B4" s="43">
         <v>45292</v>
       </c>
       <c r="C4" s="43">
         <v>45596</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1">
       <c r="A5" s="37" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -10179,9 +10271,9 @@
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="24" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B6" s="42">
         <v>45292</v>
@@ -10190,16 +10282,16 @@
         <v>45382</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="24" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B7" s="42">
         <v>45292</v>
@@ -10208,16 +10300,16 @@
         <v>45442</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="24" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B8" s="42">
         <v>45292</v>
@@ -10226,16 +10318,16 @@
         <v>45382</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F8" s="36"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="24" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B9" s="42">
         <v>45292</v>
@@ -10244,18 +10336,18 @@
         <v>45473</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="24" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B10" s="42">
         <v>45292</v>
@@ -10265,15 +10357,15 @@
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="24" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B11" s="42">
         <v>45292</v>
@@ -10283,15 +10375,15 @@
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="9" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -10299,9 +10391,9 @@
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="24" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B13" s="42">
         <v>45292</v>
@@ -10310,14 +10402,14 @@
         <v>45473</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
     </row>
-    <row r="14" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="14.45" customHeight="1" thickBot="1">
       <c r="A14" s="24" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B14" s="42">
         <v>45444</v>
@@ -10326,16 +10418,16 @@
         <v>45565</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F14" s="36"/>
     </row>
-    <row r="15" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="14.45" customHeight="1" thickBot="1">
       <c r="A15" s="24" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B15" s="42">
         <v>45383</v>
@@ -10345,13 +10437,13 @@
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F15" s="36"/>
     </row>
-    <row r="16" spans="1:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="14.45" customHeight="1" thickBot="1">
       <c r="A16" s="24" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B16" s="42">
         <v>45444</v>
@@ -10360,16 +10452,16 @@
         <v>45535</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F16" s="36"/>
     </row>
-    <row r="17" spans="1:6" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="14.45" customHeight="1" thickBot="1">
       <c r="A17" s="24" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B17" s="42">
         <v>45292</v>
@@ -10378,16 +10470,16 @@
         <v>45535</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.45" customHeight="1" thickBot="1">
       <c r="A18" s="24" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B18" s="42">
         <v>45474</v>
@@ -10396,18 +10488,18 @@
         <v>45535</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.45" customHeight="1" thickBot="1">
       <c r="A19" s="24" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B19" s="42">
         <v>45413</v>
@@ -10416,16 +10508,16 @@
         <v>45565</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.45" customHeight="1" thickBot="1">
       <c r="A20" s="9" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -10433,9 +10525,9 @@
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
     </row>
-    <row r="21" spans="1:6" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="14.45" customHeight="1" thickBot="1">
       <c r="A21" s="24" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B21" s="42">
         <v>45292</v>
@@ -10444,14 +10536,14 @@
         <v>45596</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
     </row>
-    <row r="22" spans="1:6" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="14.45" customHeight="1" thickBot="1">
       <c r="A22" s="24" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B22" s="42">
         <v>45292</v>
@@ -10460,16 +10552,16 @@
         <v>45382</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.45" customHeight="1" thickBot="1">
       <c r="A23" s="24" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B23" s="42">
         <v>45323</v>
@@ -10478,14 +10570,14 @@
         <v>45351</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E23" s="36"/>
       <c r="F23" s="36"/>
     </row>
-    <row r="24" spans="1:6" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="14.45" customHeight="1" thickBot="1">
       <c r="A24" s="24" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B24" s="42">
         <v>45352</v>
@@ -10494,16 +10586,16 @@
         <v>45473</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F24" s="36"/>
     </row>
-    <row r="25" spans="1:6" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="14.45" customHeight="1" thickBot="1">
       <c r="A25" s="24" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B25" s="42">
         <v>45383</v>
@@ -10512,7 +10604,7 @@
         <v>45535</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
@@ -10530,7 +10622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77700405-A728-49E7-856C-DF0BD9301F95}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -10538,20 +10630,20 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="38.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="G1">
         <f>COUNTIF(G5:G26,"x")</f>
         <v>15</v>
@@ -10569,51 +10661,51 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="54">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
+      <c r="G2" s="49">
         <f>G1/J1</f>
         <v>0.45454545454545453</v>
       </c>
-      <c r="H2" s="54">
+      <c r="H2" s="49">
         <f>H1/J1</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="I2" s="54">
+      <c r="I2" s="49">
         <f>I1/J1</f>
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="49" t="s">
-        <v>69</v>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
+      <c r="A3" s="51" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="50"/>
+        <v>22</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="A4" s="52"/>
       <c r="B4" s="43">
         <v>45292</v>
       </c>
@@ -10625,18 +10717,18 @@
         <v>304</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="37" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -10647,9 +10739,9 @@
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="24" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B6" s="42">
         <v>45292</v>
@@ -10662,22 +10754,22 @@
         <v>90</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F6" s="36">
         <v>0</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H6" s="36"/>
       <c r="I6" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="24" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B7" s="42">
         <v>45292</v>
@@ -10690,22 +10782,22 @@
         <v>150</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F7" s="36">
         <v>0</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="24" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B8" s="42">
         <v>45292</v>
@@ -10718,22 +10810,22 @@
         <v>90</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F8" s="36">
         <v>0</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="I8" s="36"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="24" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B9" s="42">
         <v>45292</v>
@@ -10746,24 +10838,24 @@
         <v>181</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F9" s="36">
         <v>0</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="24" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B10" s="42">
         <v>45292</v>
@@ -10776,22 +10868,22 @@
         <v>304</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F10" s="36">
         <v>0</v>
       </c>
       <c r="G10" s="36"/>
       <c r="H10" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="24" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B11" s="42">
         <v>45292</v>
@@ -10804,22 +10896,22 @@
         <v>243</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F11" s="36">
         <v>0</v>
       </c>
       <c r="G11" s="36"/>
       <c r="H11" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="9" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -10830,9 +10922,9 @@
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="24" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B13" s="42">
         <v>45292</v>
@@ -10845,20 +10937,20 @@
         <v>181</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F13" s="36">
         <v>0</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="14.45" customHeight="1" thickBot="1">
       <c r="A14" s="24" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B14" s="42">
         <v>45444</v>
@@ -10871,22 +10963,22 @@
         <v>121</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F14" s="36">
         <v>0</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="14.45" customHeight="1" thickBot="1">
       <c r="A15" s="24" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B15" s="42">
         <v>45383</v>
@@ -10899,20 +10991,20 @@
         <v>60</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F15" s="36">
         <v>0</v>
       </c>
       <c r="G15" s="36"/>
       <c r="H15" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="14.45" customHeight="1" thickBot="1">
       <c r="A16" s="24" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B16" s="42">
         <v>45444</v>
@@ -10925,22 +11017,22 @@
         <v>91</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F16" s="36">
         <v>0</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
       <c r="A17" s="24" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B17" s="42">
         <v>45292</v>
@@ -10953,22 +11045,22 @@
         <v>243</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F17" s="36">
         <v>0</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H17" s="36"/>
       <c r="I17" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
       <c r="A18" s="24" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B18" s="42">
         <v>45474</v>
@@ -10981,24 +11073,24 @@
         <v>61</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F18" s="36">
         <v>0</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
       <c r="A19" s="24" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B19" s="42">
         <v>45413</v>
@@ -11011,22 +11103,22 @@
         <v>152</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F19" s="36">
         <v>0</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
       <c r="A20" s="9" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -11037,9 +11129,9 @@
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
     </row>
-    <row r="21" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
       <c r="A21" s="24" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B21" s="42">
         <v>45292</v>
@@ -11052,20 +11144,20 @@
         <v>304</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F21" s="36">
         <v>0</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
       <c r="A22" s="24" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B22" s="42">
         <v>45292</v>
@@ -11078,22 +11170,22 @@
         <v>90</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F22" s="36">
         <v>0</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H22" s="36"/>
       <c r="I22" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
       <c r="A23" s="24" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B23" s="42">
         <v>45323</v>
@@ -11106,20 +11198,20 @@
         <v>28</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F23" s="36">
         <v>0</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
     </row>
-    <row r="24" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
       <c r="A24" s="24" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B24" s="42">
         <v>45352</v>
@@ -11132,22 +11224,22 @@
         <v>121</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F24" s="36">
         <v>0</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="I24" s="36"/>
     </row>
-    <row r="25" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="14.45" customHeight="1" thickBot="1">
       <c r="A25" s="24" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B25" s="42">
         <v>45383</v>
@@ -11160,13 +11252,13 @@
         <v>152</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F25" s="36">
         <v>0</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
@@ -11184,7 +11276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1EE513-0D37-4D0B-9AF3-FF943CE0B767}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -11192,58 +11284,58 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="7" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1">
       <c r="A2" s="9" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="9" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="A3" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -11254,18 +11346,18 @@
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4" s="17" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E4" s="18">
         <v>4</v>
@@ -11277,18 +11369,18 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15" thickBot="1">
       <c r="A5" s="17" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E5" s="18">
         <v>5</v>
@@ -11300,21 +11392,21 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15" thickBot="1">
       <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>11</v>
@@ -11323,34 +11415,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15" thickBot="1">
       <c r="A7" s="20" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="21" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="15" thickBot="1">
       <c r="A8" s="17" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>10</v>
@@ -11359,21 +11451,21 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="15" thickBot="1">
       <c r="A9" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>12</v>
@@ -11382,21 +11474,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="15" thickBot="1">
       <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>7</v>
@@ -11441,82 +11533,4 @@
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A35E31-CC84-4E61-98F7-3942719A1920}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="47">
-        <v>1</v>
-      </c>
-      <c r="C2" s="47">
-        <v>2</v>
-      </c>
-      <c r="D2" s="47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="47">
-        <v>1</v>
-      </c>
-      <c r="C3" s="47">
-        <v>2</v>
-      </c>
-      <c r="D3" s="47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="47">
-        <v>1</v>
-      </c>
-      <c r="C4" s="47">
-        <v>2</v>
-      </c>
-      <c r="D4" s="47">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/BD/Base Status Report - v2.xlsx
+++ b/BD/Base Status Report - v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://carajasonline-my.sharepoint.com/personal/paulo_santos_carajas_com_br/Documents/Área de Trabalho/Status Report Manager Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="646" documentId="8_{0C9FC3F2-318F-408F-A5F2-4EE3F38EC192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F500FF0D-8135-4D72-8E2E-3DA1DDC16CC8}"/>
+  <xr:revisionPtr revIDLastSave="685" documentId="8_{0C9FC3F2-318F-408F-A5F2-4EE3F38EC192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29A2FF9B-2B0C-4D9F-BA0E-A5BAE31A454A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="723" firstSheet="2" activeTab="4" xr2:uid="{573AE749-48BB-4457-B8BB-EECBBACD5347}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="723" firstSheet="4" activeTab="5" xr2:uid="{573AE749-48BB-4457-B8BB-EECBBACD5347}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela descricao" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="93">
   <si>
     <t>Project Name</t>
   </si>
@@ -286,13 +286,16 @@
     <t>High</t>
   </si>
   <si>
-    <t>Nome</t>
+    <t>Nome do gerente</t>
   </si>
   <si>
     <t>Original Estimative</t>
   </si>
   <si>
     <t xml:space="preserve">Velocidade </t>
+  </si>
+  <si>
+    <t>Nome</t>
   </si>
   <si>
     <t>Remaining Work</t>
@@ -755,6 +758,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -769,12 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2777,7 +2780,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Trabalho restante da Sprint (2)'!$A$9</c:f>
+              <c:f>'Trabalho restante da Sprint (2)'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2798,7 +2801,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Trabalho restante da Sprint (2)'!$B$8:$D$8</c:f>
+              <c:f>'Trabalho restante da Sprint (2)'!$E$2:$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2815,7 +2818,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Trabalho restante da Sprint (2)'!$B$9:$D$9</c:f>
+              <c:f>'Trabalho restante da Sprint (2)'!$E$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2842,7 +2845,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Trabalho restante da Sprint (2)'!$A$10</c:f>
+              <c:f>'Trabalho restante da Sprint (2)'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2863,7 +2866,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Trabalho restante da Sprint (2)'!$B$8:$D$8</c:f>
+              <c:f>'Trabalho restante da Sprint (2)'!$E$2:$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2880,7 +2883,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Trabalho restante da Sprint (2)'!$B$10:$D$10</c:f>
+              <c:f>'Trabalho restante da Sprint (2)'!$E$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2907,7 +2910,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Trabalho restante da Sprint (2)'!$A$11</c:f>
+              <c:f>'Trabalho restante da Sprint (2)'!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2928,7 +2931,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Trabalho restante da Sprint (2)'!$B$8:$D$8</c:f>
+              <c:f>'Trabalho restante da Sprint (2)'!$E$2:$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2945,7 +2948,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Trabalho restante da Sprint (2)'!$B$11:$D$11</c:f>
+              <c:f>'Trabalho restante da Sprint (2)'!$E$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4005,7 +4008,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4D1A6D72-B149-4972-A043-0858DDEE19DF}</c15:txfldGUID>
+                      <c15:txfldGUID>{D3ED5B99-9984-4EBB-8A8D-772903BA5540}</c15:txfldGUID>
                       <c15:f>Velocimetro!$E$1</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8051,13 +8054,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8132,16 +8135,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1073150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>568325</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8772,10 +8775,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A3AAAF-3616-4BE3-8E24-3869A8E2B8F4}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="14.45"/>
@@ -8784,7 +8787,7 @@
     <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="23" t="s">
         <v>78</v>
       </c>
@@ -8792,83 +8795,82 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
       <c r="A2" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="24">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="A3" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="50">
+        <v>6</v>
+      </c>
+      <c r="F3" s="50">
+        <v>4</v>
+      </c>
+      <c r="G3" s="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="50">
-        <v>6</v>
-      </c>
-      <c r="C9" s="50">
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="50">
         <v>4</v>
       </c>
-      <c r="D9" s="50">
+      <c r="F4" s="50">
+        <v>4</v>
+      </c>
+      <c r="G4" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="50">
+        <v>3</v>
+      </c>
+      <c r="F5" s="50">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="50">
-        <v>4</v>
-      </c>
-      <c r="C10" s="50">
-        <v>4</v>
-      </c>
-      <c r="D10" s="50">
+      <c r="G5" s="50">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="50">
-        <v>3</v>
-      </c>
-      <c r="C11" s="50">
-        <v>5</v>
-      </c>
-      <c r="D11" s="50">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="7" spans="1:7" ht="15"/>
+    <row r="8" spans="1:7" ht="15"/>
+    <row r="9" spans="1:7" ht="15"/>
+    <row r="10" spans="1:7" ht="15"/>
+    <row r="11" spans="1:7" ht="15"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -8892,18 +8894,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>79</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1">
       <c r="A2" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="24">
         <v>92</v>
@@ -8914,7 +8916,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1">
       <c r="A3" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="24">
         <v>85</v>
@@ -8925,7 +8927,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1">
       <c r="A4" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" s="24">
         <v>84</v>
@@ -8936,7 +8938,7 @@
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1">
       <c r="A5" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="24">
         <v>78</v>
@@ -8947,7 +8949,7 @@
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" s="24">
         <v>72</v>
@@ -8973,20 +8975,20 @@
   <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="53"/>
+      <c r="A1" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="55"/>
       <c r="D1" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" s="34">
         <v>0</v>
       </c>
-      <c r="G1" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="55"/>
+      <c r="G1" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="30">
@@ -8996,7 +8998,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H2" s="31">
         <v>0</v>
@@ -9011,7 +9013,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" s="31">
         <v>4</v>
@@ -9026,7 +9028,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" s="31">
         <f>SUM(B2:B12)-H2-H3</f>
@@ -9098,7 +9100,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B12" s="35">
         <f>SUM(B2:B11)</f>
@@ -9324,7 +9326,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="53" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -9342,18 +9344,18 @@
       <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="53" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1">
-      <c r="A4" s="52"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="43">
         <v>45292</v>
       </c>
@@ -9370,9 +9372,9 @@
       <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="37" t="s">
@@ -9927,9 +9929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E14863D-7AF3-40D1-AA37-0845B6DBA6EE}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView topLeftCell="Q1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
@@ -9940,7 +9940,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="51" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="46" t="s">
@@ -10103,10 +10103,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A35E31-CC84-4E61-98F7-3942719A1920}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A6:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -10118,7 +10118,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="46" t="s">
@@ -10173,6 +10173,16 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="15"/>
+    <row r="6" spans="1:4" ht="15"/>
+    <row r="7" spans="1:4" ht="15"/>
+    <row r="8" spans="1:4" ht="15"/>
+    <row r="9" spans="1:4" ht="15"/>
+    <row r="10" spans="1:4" ht="15"/>
+    <row r="11" spans="1:4" ht="15"/>
+    <row r="12" spans="1:4" ht="15"/>
+    <row r="13" spans="1:4" ht="15"/>
+    <row r="14" spans="1:4" ht="15"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -10183,8 +10193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3DDB14-0B86-4454-A355-FE8EF26191C0}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -10230,7 +10240,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="53" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -10239,27 +10249,27 @@
       <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="53" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1">
-      <c r="A4" s="52"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="43">
         <v>45292</v>
       </c>
       <c r="C4" s="43">
         <v>45596</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1">
       <c r="A5" s="37" t="s">
@@ -10676,7 +10686,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="53" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -10694,18 +10704,18 @@
       <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="53" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1">
-      <c r="A4" s="52"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="43">
         <v>45292</v>
       </c>
@@ -10722,9 +10732,9 @@
       <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="37" t="s">
